--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3387.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3387.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.349205759800426</v>
+        <v>2.841744661331177</v>
       </c>
       <c r="B1">
-        <v>2.459077815968024</v>
+        <v>6.087389469146729</v>
       </c>
       <c r="C1">
-        <v>3.011360540718508</v>
+        <v>2.24291467666626</v>
       </c>
       <c r="D1">
-        <v>3.556786244612972</v>
+        <v>1.469248294830322</v>
       </c>
       <c r="E1">
-        <v>2.80119743293688</v>
+        <v>1.208699107170105</v>
       </c>
     </row>
   </sheetData>
